--- a/Probabilidad y Estadistica/Clase 02 - Caso Practico.xlsx
+++ b/Probabilidad y Estadistica/Clase 02 - Caso Practico.xlsx
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +942,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -994,7 +994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
